--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/1.NhanBH/NBH220516_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/1.NhanBH/NBH220516_AnhTuanBG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -479,6 +479,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,45 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -930,92 +930,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1236,7 +1236,9 @@
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="17">
+        <v>861881051082817</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="4" t="s">
         <v>7</v>
@@ -1250,7 +1252,9 @@
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17">
+        <v>861881051086529</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -1264,7 +1268,9 @@
       <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17">
+        <v>861881051086651</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="4" t="s">
         <v>7</v>
@@ -1278,7 +1284,9 @@
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>861881051086545</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>7</v>
@@ -1292,7 +1300,9 @@
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="17">
+        <v>861881051083468</v>
+      </c>
       <c r="D27" s="21"/>
       <c r="E27" s="4" t="s">
         <v>7</v>
@@ -1306,7 +1316,9 @@
       <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>861881051077791</v>
+      </c>
       <c r="D28" s="21"/>
       <c r="E28" s="4" t="s">
         <v>7</v>
@@ -1320,12 +1332,14 @@
       <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="17">
+        <v>861881051090489</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -1334,121 +1348,683 @@
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="17">
+        <v>862205051195685</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="30" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="17">
+        <v>862205051163055</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="17">
+        <v>861881051090190</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="17">
+        <v>861881051088582</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="17">
+        <v>861881051089382</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="17">
+        <v>862205051216846</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>26</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="17">
+        <v>862205051188821</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>27</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="17">
+        <v>861881051077809</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="17">
+        <v>861881054164034</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>29</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="17">
+        <v>862205051196857</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="17">
+        <v>861881051085802</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="17">
+        <v>861881051085497</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>32</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="17">
+        <v>861881051082627</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="17">
+        <v>861881051088814</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>34</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="17">
+        <v>861881051088913</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>35</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="17">
+        <v>862205051163154</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>36</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="17">
+        <v>862205051180240</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="17">
+        <v>861881051071968</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>38</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="17">
+        <v>861881051084631</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="17">
+        <v>861881051088665</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>40</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="17">
+        <v>861881051088939</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>41</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="17">
+        <v>862205051188490</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>42</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="17">
+        <v>862205051199166</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>43</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="17">
+        <v>861881051078716</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="17">
+        <v>861881051091438</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>45</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="17">
+        <v>861881051083211</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>46</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="17">
+        <v>861881051085851</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>47</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="17">
+        <v>861881051089119</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>48</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="17">
+        <v>861881051086610</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>49</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="17">
+        <v>860906041207496</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>50</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="17">
+        <v>862205051194332</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="17">
+        <v>861881051084185</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>52</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="17">
+        <v>862205051172056</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>53</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="17">
+        <v>862205051165993</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>54</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="17">
+        <v>861881051083211</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>55</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="17">
+        <v>862205051171470</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="50" t="s">
+      <c r="E66" s="43"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="40" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="8:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D66:F66"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
